--- a/CL_CD_S.xlsx
+++ b/CL_CD_S.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wadakoki/Desktop/force_calc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6480C6C-1F8D-2740-9B95-706EA29E9E35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046F3BA7-4F77-2D47-8AAD-353C8310343B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="24600" windowHeight="14500" activeTab="1" xr2:uid="{4A645DDF-1F9F-FE45-98B9-2823247ECC4C}"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="24600" windowHeight="14500" xr2:uid="{4A645DDF-1F9F-FE45-98B9-2823247ECC4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Lift_Drag" sheetId="2" r:id="rId1"/>
     <sheet name="CL_CD_S" sheetId="1" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>alpha</t>
     <phoneticPr fontId="1"/>
@@ -62,24 +65,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>飛行時間(CL/CD)^1.5</t>
-    <rPh sb="0" eb="2">
-      <t>ジカｎ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.5倍機/従来機</t>
-    <rPh sb="0" eb="2">
-      <t>バイキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>航続距離CL/(S^0.5*CD^1.5)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CL/CD</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -91,6 +76,20 @@
   </si>
   <si>
     <t>Lift</t>
+  </si>
+  <si>
+    <t>1.5倍機hole_original</t>
+    <rPh sb="0" eb="2">
+      <t>バイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.5倍機hole_original</t>
+    <rPh sb="0" eb="1">
+      <t>ビキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -337,7 +336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -392,7 +391,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -554,7 +556,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>1.5倍機</c:v>
+            <c:v>1.5倍機A</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="square"/>
@@ -641,6 +643,92 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3AD5-5E4F-A28A-2B02A728D4CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>1.5倍機B</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:ln w="9525"/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CL_CD_S!$H$3:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.0456167449267832E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2113532093289767E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8491901755711227E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6757844850736545E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.645485154708726E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8497801401923167E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5421476067034286E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11395454424275345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CL_CD_S!$I$3:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.4335702401133403E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12271895464134275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2283491222064111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.341757182657354</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45287465671385413</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55552910673415246</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66091444354777795</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75945391478031798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-02F0-9642-A406-FB3994E3FCEB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -808,8 +896,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.20822525736524619"/>
           <c:y val="6.3625744463361653E-2"/>
-          <c:w val="0.26350868481718559"/>
-          <c:h val="0.1625542626638965"/>
+          <c:w val="0.14503780839556232"/>
+          <c:h val="0.17559043755495735"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -848,466 +936,20 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>従来機</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>CL_CD_S!$A$3:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>CL_CD_S!$I$3:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.97019767696260872</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2903191757514541</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3360122129022485</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.9801980447474756</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.4826948820843953</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.69579622791486</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.7577921852524021</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.648717430243436</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B8CC-9847-A1F2-C1F7362B4F6F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>1.5倍機</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>CL_CD_S!$A$3:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>CL_CD_S!$J$3:$J$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.2760135960280396</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5730304803614628</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0429854058887811</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.4323310896610018</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0473841448095351</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.2453634866101417</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.2140258617967152</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.9379853484917851</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B8CC-9847-A1F2-C1F7362B4F6F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1496373711"/>
-        <c:axId val="1498255007"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1496373711"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="14"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
-                  <a:t>α[deg]</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1498255007"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1498255007"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
-                  <a:t>         </a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" sz="1200"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1496373711"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.58047309176316786"/>
-          <c:y val="0.56308569938278963"/>
-          <c:w val="0.26292269857181422"/>
-          <c:h val="0.19241034389881831"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>259183</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>245533</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25918</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25918</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1334,50 +976,12 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>927509</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>53624</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9878</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E5DB875-1288-AB41-972B-F3CA0A94EB54}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>282511</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>231451</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="276166" cy="250453"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -1395,7 +999,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2984500" y="6718300"/>
+              <a:off x="4118429" y="7773696"/>
               <a:ext cx="276166" cy="250453"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1477,7 +1081,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2984500" y="6718300"/>
+              <a:off x="4118429" y="7773696"/>
               <a:ext cx="276166" cy="250453"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1505,6 +1109,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -1519,191 +1124,6 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="241300" cy="502895"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="テキスト ボックス 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1633C39-812B-8D44-8103-F3517BB85CA1}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5778500" y="5118100"/>
-              <a:ext cx="241300" cy="502895"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝐶</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝐿</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                      </m:num>
-                      <m:den>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝐶</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝐷</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                      </m:den>
-                    </m:f>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="テキスト ボックス 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1633C39-812B-8D44-8103-F3517BB85CA1}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5778500" y="5118100"/>
-              <a:ext cx="241300" cy="502895"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝐶_𝐿/𝐶_𝐷 </a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1711,12 +1131,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.01879</cdr:x>
-      <cdr:y>0.41241</cdr:y>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.49721</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.08073</cdr:x>
-      <cdr:y>0.48438</cdr:y>
+      <cdr:x>0.06194</cdr:x>
+      <cdr:y>0.56918</cdr:y>
     </cdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -1733,8 +1153,8 @@
           </cdr:nvSpPr>
           <cdr:spPr>
             <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="76200" y="1435100"/>
-              <a:ext cx="251223" cy="250453"/>
+              <a:off x="0" y="2203634"/>
+              <a:ext cx="417399" cy="318974"/>
             </a:xfrm>
             <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
               <a:avLst/>
@@ -1906,8 +1326,8 @@
           </cdr:nvSpPr>
           <cdr:spPr>
             <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="76200" y="1435100"/>
-              <a:ext cx="251223" cy="250453"/>
+              <a:off x="0" y="2203634"/>
+              <a:ext cx="417399" cy="318974"/>
             </a:xfrm>
             <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
               <a:avLst/>
@@ -2040,6 +1460,70 @@
     </mc:AlternateContent>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="alpha=0"/>
+      <sheetName val="alpha=2"/>
+      <sheetName val="alpha=4"/>
+      <sheetName val="alpha=6"/>
+      <sheetName val="alpha=8"/>
+      <sheetName val="alpha=10"/>
+      <sheetName val="alpha=12"/>
+      <sheetName val="alpha=14"/>
+      <sheetName val="plot_1.0vs1.5"/>
+      <sheetName val="plot_1.0vs1.5vs1.5ori"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="22">
+          <cell r="J22">
+            <v>28.131512991239777</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="J25">
+            <v>199.08677700520616</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="22">
+          <cell r="J22">
+            <v>34.196505452155058</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="J25">
+            <v>236.85406371530317</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="22">
+          <cell r="J22">
+            <v>40.838261512089787</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="J25">
+            <v>272.16797525958475</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2339,43 +1823,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BAD8BA-1ACC-D043-8110-9B37B6ABFE8E}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="17"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="20"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="20"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="17">
         <v>0</v>
       </c>
@@ -2391,8 +1885,14 @@
       <c r="E3" s="17">
         <v>4.3615335693399997</v>
       </c>
+      <c r="F3">
+        <v>14.498408615899999</v>
+      </c>
+      <c r="G3">
+        <v>5.1375324038840056</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" s="17">
         <v>2</v>
       </c>
@@ -2408,8 +1908,14 @@
       <c r="E4" s="17">
         <v>44.787241017938562</v>
       </c>
+      <c r="F4">
+        <v>15.09236378638688</v>
+      </c>
+      <c r="G4">
+        <v>43.979191838610134</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -2425,8 +1931,14 @@
       <c r="E5" s="17">
         <v>78.067316869245346</v>
       </c>
+      <c r="F5">
+        <v>17.378200915793958</v>
+      </c>
+      <c r="G5">
+        <v>81.834219343249941</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" s="17">
         <v>6</v>
       </c>
@@ -2442,8 +1954,14 @@
       <c r="E6" s="17">
         <v>119.45472508969937</v>
       </c>
+      <c r="F6">
+        <v>20.34049388973267</v>
+      </c>
+      <c r="G6">
+        <v>122.47663567733142</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" s="17">
         <v>8</v>
       </c>
@@ -2459,8 +1977,14 @@
       <c r="E7" s="17">
         <v>154.93516292793052</v>
       </c>
+      <c r="F7">
+        <v>23.815641791745705</v>
+      </c>
+      <c r="G7">
+        <v>162.29816709792479</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8" s="17">
         <v>10</v>
       </c>
@@ -2476,8 +2000,16 @@
       <c r="E8" s="17">
         <v>194.18111735835635</v>
       </c>
+      <c r="F8" s="18">
+        <f>'[1]alpha=10'!$J$22</f>
+        <v>28.131512991239777</v>
+      </c>
+      <c r="G8" s="18">
+        <f>'[1]alpha=10'!$J$25</f>
+        <v>199.08677700520616</v>
+      </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="A9" s="17">
         <v>12</v>
       </c>
@@ -2493,8 +2025,16 @@
       <c r="E9" s="17">
         <v>236.0857258009668</v>
       </c>
+      <c r="F9" s="19">
+        <f>'[1]alpha=12'!$J$22</f>
+        <v>34.196505452155058</v>
+      </c>
+      <c r="G9" s="19">
+        <f>'[1]alpha=12'!$J$25</f>
+        <v>236.85406371530317</v>
+      </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7">
       <c r="A10" s="17">
         <v>14</v>
       </c>
@@ -2510,11 +2050,20 @@
       <c r="E10" s="17">
         <v>265.13703159866958</v>
       </c>
+      <c r="F10" s="19">
+        <f>'[1]alpha=14'!$J$22</f>
+        <v>40.838261512089787</v>
+      </c>
+      <c r="G10" s="19">
+        <f>'[1]alpha=14'!$J$25</f>
+        <v>272.16797525958475</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2523,56 +2072,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{380BC9A8-C4CA-F747-BE95-C18A8ED6F8C5}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="83" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:14">
       <c r="A1" s="7"/>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="23"/>
-      <c r="I1" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="24"/>
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
       <c r="N1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="21" thickBot="1">
+    <row r="2" spans="1:14" ht="21" thickBot="1">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -2594,24 +2133,26 @@
       <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="19" t="s">
+      <c r="H2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:14">
       <c r="A3" s="8">
         <v>0</v>
       </c>
@@ -2639,40 +2180,32 @@
         <f>0.7463</f>
         <v>0.74629999999999996</v>
       </c>
-      <c r="I3">
+      <c r="H3" s="1">
+        <f>2*Lift_Drag!F3/(1.225*28*28*CL_CD_S!$G3)</f>
+        <v>4.0456167449267832E-2</v>
+      </c>
+      <c r="I3" s="11">
+        <f>2*Lift_Drag!G3/(1.225*28*28*CL_CD_S!$G3)</f>
+        <v>1.4335702401133403E-2</v>
+      </c>
+      <c r="J3" s="3">
+        <f>0.7463</f>
+        <v>0.74629999999999996</v>
+      </c>
+      <c r="L3">
         <f>C3/B3</f>
         <v>0.97019767696260872</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J10" si="0">F3/E3</f>
+      <c r="M3">
+        <f t="shared" ref="M3:M10" si="0">F3/E3</f>
         <v>0.2760135960280396</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K10" si="1">(C3/B3)^1.5</f>
-        <v>0.95563125549647465</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L10" si="2">(F3/E3)^1.5</f>
-        <v>0.14500925220880143</v>
-      </c>
-      <c r="M3">
-        <f>L3/K3</f>
-        <v>0.15174184746967642</v>
-      </c>
       <c r="N3">
-        <f>C3/(D3^0.5*B3^1.5)</f>
-        <v>5.4369954288031481</v>
-      </c>
-      <c r="O3">
-        <f>F3/(G3^0.5*E3^1.5)</f>
-        <v>1.5215533378420611</v>
-      </c>
-      <c r="P3">
-        <f>O3/N3</f>
-        <v>0.27985186998345563</v>
+        <f>I3/H3</f>
+        <v>0.35435146987441213</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:14">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -2685,7 +2218,7 @@
         <v>0.14244029483536985</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D10" si="3">0.5376</f>
+        <f t="shared" ref="D4:D10" si="1">0.5376</f>
         <v>0.53759999999999997</v>
       </c>
       <c r="E4" s="1">
@@ -2697,43 +2230,35 @@
         <v>0.12497372437312583</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G10" si="4">0.7463</f>
+        <f t="shared" ref="G4:G10" si="2">0.7463</f>
         <v>0.74629999999999996</v>
       </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I10" si="5">C4/B4</f>
+      <c r="H4" s="1">
+        <f>2*Lift_Drag!F4/(1.225*28*28*CL_CD_S!$G4)</f>
+        <v>4.2113532093289767E-2</v>
+      </c>
+      <c r="I4" s="11">
+        <f>2*Lift_Drag!G4/(1.225*28*28*CL_CD_S!$G4)</f>
+        <v>0.12271895464134275</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" ref="J4:J10" si="3">0.7463</f>
+        <v>0.74629999999999996</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L10" si="4">C4/B4</f>
         <v>2.2903191757514541</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <f t="shared" si="0"/>
         <v>2.5730304803614628</v>
       </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
-        <v>3.4661233487248735</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="2"/>
-        <v>4.127312914504321</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M10" si="6">L4/K4</f>
-        <v>1.1907576561066955</v>
-      </c>
       <c r="N4">
-        <f t="shared" ref="N4:N10" si="7">C4/(D4^0.5*B4^1.5)</f>
-        <v>12.525583078927079</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O10" si="8">F4/(G4^0.5*E4^1.5)</f>
-        <v>13.514541596347176</v>
-      </c>
-      <c r="P4">
-        <f t="shared" ref="P4:P10" si="9">O4/N4</f>
-        <v>1.0789550882532495</v>
+        <f t="shared" ref="N4:N10" si="5">I4/H4</f>
+        <v>2.9140028998160519</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:14">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -2746,7 +2271,7 @@
         <v>0.23351597520383982</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.53759999999999997</v>
       </c>
       <c r="E5" s="1">
@@ -2758,43 +2283,35 @@
         <v>0.21783800741507706</v>
       </c>
       <c r="G5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.74629999999999996</v>
+      </c>
+      <c r="H5" s="1">
+        <f>2*Lift_Drag!F5/(1.225*28*28*CL_CD_S!$G5)</f>
+        <v>4.8491901755711227E-2</v>
+      </c>
+      <c r="I5" s="11">
+        <f>2*Lift_Drag!G5/(1.225*28*28*CL_CD_S!$G5)</f>
+        <v>0.2283491222064111</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="3"/>
+        <v>0.74629999999999996</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="4"/>
-        <v>0.74629999999999996</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="5"/>
         <v>3.3360122129022485</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <f t="shared" si="0"/>
         <v>4.0429854058887811</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>6.0931440821508307</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="2"/>
-        <v>8.1293020518472865</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="6"/>
-        <v>1.3341719713573077</v>
-      </c>
       <c r="N5">
-        <f t="shared" si="7"/>
-        <v>17.197032794599959</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="8"/>
-        <v>20.161819006916371</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="9"/>
-        <v>1.1724010326506666</v>
+        <f t="shared" si="5"/>
+        <v>4.709015607529083</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:14">
       <c r="A6" s="8">
         <v>6</v>
       </c>
@@ -2807,7 +2324,7 @@
         <v>0.3207467172698561</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.53759999999999997</v>
       </c>
       <c r="E6" s="1">
@@ -2819,43 +2336,35 @@
         <v>0.33332488336238969</v>
       </c>
       <c r="G6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.74629999999999996</v>
+      </c>
+      <c r="H6" s="1">
+        <f>2*Lift_Drag!F6/(1.225*28*28*CL_CD_S!$G6)</f>
+        <v>5.6757844850736545E-2</v>
+      </c>
+      <c r="I6" s="11">
+        <f>2*Lift_Drag!G6/(1.225*28*28*CL_CD_S!$G6)</f>
+        <v>0.341757182657354</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="3"/>
+        <v>0.74629999999999996</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="4"/>
-        <v>0.74629999999999996</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="5"/>
         <v>3.9801980447474756</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <f t="shared" si="0"/>
         <v>5.4323310896610018</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>7.9406677170354438</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="2"/>
-        <v>12.661330552861422</v>
-      </c>
-      <c r="M6" s="18">
-        <f t="shared" si="6"/>
-        <v>1.5944919248665379</v>
-      </c>
       <c r="N6">
-        <f t="shared" si="7"/>
-        <v>19.122571036052321</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="8"/>
-        <v>25.385677499910393</v>
-      </c>
-      <c r="P6" s="18">
-        <f t="shared" si="9"/>
-        <v>1.3275242880285325</v>
+        <f t="shared" si="5"/>
+        <v>6.0213206395718002</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:14">
       <c r="A7" s="8">
         <v>8</v>
       </c>
@@ -2868,7 +2377,7 @@
         <v>0.4078709529604243</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.53759999999999997</v>
       </c>
       <c r="E7" s="1">
@@ -2880,43 +2389,35 @@
         <v>0.43232902736083184</v>
       </c>
       <c r="G7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.74629999999999996</v>
+      </c>
+      <c r="H7" s="1">
+        <f>2*Lift_Drag!F7/(1.225*28*28*CL_CD_S!$G7)</f>
+        <v>6.645485154708726E-2</v>
+      </c>
+      <c r="I7" s="11">
+        <f>2*Lift_Drag!G7/(1.225*28*28*CL_CD_S!$G7)</f>
+        <v>0.45287465671385413</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.74629999999999996</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="4"/>
-        <v>0.74629999999999996</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="5"/>
         <v>4.4826948820843953</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <f t="shared" si="0"/>
         <v>6.0473841448095351</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>9.4909299707797565</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="2"/>
-        <v>14.87138220402694</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="6"/>
-        <v>1.5669046394623367</v>
-      </c>
-      <c r="N7" s="16">
-        <f t="shared" si="7"/>
-        <v>20.26831989425888</v>
-      </c>
-      <c r="O7" s="16">
-        <f t="shared" si="8"/>
-        <v>26.181071496813061</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="9"/>
-        <v>1.2917238149684525</v>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>6.8147719266661095</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:14">
       <c r="A8" s="8">
         <v>10</v>
       </c>
@@ -2929,7 +2430,7 @@
         <v>0.48269408323271173</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.53759999999999997</v>
       </c>
       <c r="E8" s="1">
@@ -2941,43 +2442,35 @@
         <v>0.54184041900435409</v>
       </c>
       <c r="G8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.74629999999999996</v>
+      </c>
+      <c r="H8" s="1">
+        <f>2*Lift_Drag!F8/(1.225*28*28*CL_CD_S!$G8)</f>
+        <v>7.8497801401923167E-2</v>
+      </c>
+      <c r="I8" s="11">
+        <f>2*Lift_Drag!G8/(1.225*28*28*CL_CD_S!$G8)</f>
+        <v>0.55552910673415246</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="3"/>
+        <v>0.74629999999999996</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="4"/>
-        <v>0.74629999999999996</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="5"/>
         <v>4.69579622791486</v>
       </c>
-      <c r="J8" s="16">
+      <c r="M8" s="16">
         <f t="shared" si="0"/>
         <v>6.2453634866101417</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>10.175689908826644</v>
-      </c>
-      <c r="L8" s="16">
-        <f t="shared" si="2"/>
-        <v>15.607616299775291</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="6"/>
-        <v>1.5338140646598182</v>
-      </c>
       <c r="N8">
-        <f t="shared" si="7"/>
-        <v>19.975527019195013</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="8"/>
-        <v>24.543933168822463</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="9"/>
-        <v>1.2287001562080213</v>
+        <f t="shared" si="5"/>
+        <v>7.0770021174190774</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:14">
       <c r="A9" s="8">
         <v>12</v>
       </c>
@@ -2990,7 +2483,7 @@
         <v>0.5718801025420549</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.53759999999999997</v>
       </c>
       <c r="E9" s="1">
@@ -3002,43 +2495,35 @@
         <v>0.65877048360406909</v>
       </c>
       <c r="G9" s="3">
+        <f t="shared" si="2"/>
+        <v>0.74629999999999996</v>
+      </c>
+      <c r="H9" s="1">
+        <f>2*Lift_Drag!F9/(1.225*28*28*CL_CD_S!$G9)</f>
+        <v>9.5421476067034286E-2</v>
+      </c>
+      <c r="I9" s="11">
+        <f>2*Lift_Drag!G9/(1.225*28*28*CL_CD_S!$G9)</f>
+        <v>0.66091444354777795</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="3"/>
+        <v>0.74629999999999996</v>
+      </c>
+      <c r="L9" s="16">
         <f t="shared" si="4"/>
-        <v>0.74629999999999996</v>
-      </c>
-      <c r="I9" s="16">
-        <f t="shared" si="5"/>
         <v>4.7577921852524021</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <f t="shared" si="0"/>
         <v>6.2140258617967152</v>
       </c>
-      <c r="K9" s="16">
-        <f t="shared" si="1"/>
-        <v>10.377869446377272</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="2"/>
-        <v>15.490291289155797</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="6"/>
-        <v>1.4926273036286055</v>
-      </c>
       <c r="N9">
-        <f t="shared" si="7"/>
-        <v>18.716562109101083</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="8"/>
-        <v>22.092038817751654</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="9"/>
-        <v>1.1803470471219293</v>
+        <f t="shared" si="5"/>
+        <v>6.9262651426968151</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="21" thickBot="1">
+    <row r="10" spans="1:14" ht="21" thickBot="1">
       <c r="A10" s="9">
         <v>14</v>
       </c>
@@ -3051,7 +2536,7 @@
         <v>0.65821198107625467</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.53759999999999997</v>
       </c>
       <c r="E10" s="4">
@@ -3063,48 +2548,39 @@
         <v>0.73983486267549525</v>
       </c>
       <c r="G10" s="6">
+        <f t="shared" si="2"/>
+        <v>0.74629999999999996</v>
+      </c>
+      <c r="H10" s="4">
+        <f>2*Lift_Drag!F10/(1.225*28*28*CL_CD_S!$G10)</f>
+        <v>0.11395454424275345</v>
+      </c>
+      <c r="I10" s="10">
+        <f>2*Lift_Drag!G10/(1.225*28*28*CL_CD_S!$G10)</f>
+        <v>0.75945391478031798</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="3"/>
+        <v>0.74629999999999996</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="4"/>
-        <v>0.74629999999999996</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="5"/>
         <v>4.648717430243436</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <f t="shared" si="0"/>
         <v>5.9379853484917851</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>10.023045986712301</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="2"/>
-        <v>14.46967186380334</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="6"/>
-        <v>1.4436401751509467</v>
-      </c>
       <c r="N10">
-        <f t="shared" si="7"/>
-        <v>16.849507113761668</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="8"/>
-        <v>19.473076299371474</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="9"/>
-        <v>1.1557059899673285</v>
+        <f t="shared" si="5"/>
+        <v>6.664533826421871</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
